--- a/data/hotels_by_city/Houston/Houston_shard_503.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_503.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56062-d106812-Reviews-Motel_6_Houston_Katy-Katy_Texas.html</t>
   </si>
   <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Katy-Hotels-Motel-6-Houston-Katy.h34718.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,517 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r411562786-Motel_6_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>56062</t>
+  </si>
+  <si>
+    <t>106812</t>
+  </si>
+  <si>
+    <t>411562786</t>
+  </si>
+  <si>
+    <t>08/27/2016</t>
+  </si>
+  <si>
+    <t>Pretty good stay</t>
+  </si>
+  <si>
+    <t>This is one of the better Motel 6's we've stayed in. We were passing through on a long drive moving states and ended up just outside of Houston. We have a dog so we always look for a Motel 6 so he can stay. The rooms that they assign to you when you have pets are on the 3rd floor. Rooms are good and bed was pretty comfy. There was enough grass around to take the dog out too. Main downfall was we had a big U-Haul truck with a car being towed, and there wasn't an ideal place to park it. We had to park along the street on the next block over. It worked out though and everything was safe. Would stay here again when we're next in the Houston area. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>This is one of the better Motel 6's we've stayed in. We were passing through on a long drive moving states and ended up just outside of Houston. We have a dog so we always look for a Motel 6 so he can stay. The rooms that they assign to you when you have pets are on the 3rd floor. Rooms are good and bed was pretty comfy. There was enough grass around to take the dog out too. Main downfall was we had a big U-Haul truck with a car being towed, and there wasn't an ideal place to park it. We had to park along the street on the next block over. It worked out though and everything was safe. Would stay here again when we're next in the Houston area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r406816138-Motel_6_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>406816138</t>
+  </si>
+  <si>
+    <t>08/17/2016</t>
+  </si>
+  <si>
+    <t>Good stay, I would stay again.</t>
+  </si>
+  <si>
+    <t>I was traveling with my mom on a two week road trip and we stop here for the night around 3:30PM. The rooms were clean and the staff was nice. The did not have outside access to room you had to enter through the front and take an elevator. My only complaint was the room seem like it was just cleaned with some type of chemical and the smell never went away.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r378397190-Motel_6_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>378397190</t>
+  </si>
+  <si>
+    <t>05/31/2016</t>
+  </si>
+  <si>
+    <t>Great for a last minute stop</t>
+  </si>
+  <si>
+    <t>Stopped here and was able to grab a room while driving through Houston. Hit an unexpected delay (first time driving in Houston rush hour...) and was here much later than originally anticipated. Staff was very friendly and the room was nicer that I was expecting from a Motel 6. Even being right next to I-10 the rooms were very quiet. I loved how they also have patrolling security at night keeping an eye on vehicles.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r303534686-Motel_6_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>303534686</t>
+  </si>
+  <si>
+    <t>08/25/2015</t>
+  </si>
+  <si>
+    <t>Nites sleep</t>
+  </si>
+  <si>
+    <t>The staff were very nice. The a.c. was on upon arrival. Room was quite clean. The walls are paper thin. And were woken from the room above us, sounded as if they were trying to come through the ceiling. The bed was quite hard, pillows were ok. The bedding and towels were newer.The truck parking was on the road, on the other side of 2 businesses... And, of course, they allow pets FOCI would probably recommend, but I doubt I'd stay again, only due to the noise and the firmness of the bed.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r299945294-Motel_6_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>299945294</t>
+  </si>
+  <si>
+    <t>08/16/2015</t>
+  </si>
+  <si>
+    <t>Abandoned dump</t>
+  </si>
+  <si>
+    <t>This place is a stinky $80 a night dump . Waited 6 hours to check in. A bare bones dump worse than living on an island shipwrecked. Forgotten toiletries are available in vending machine in the lobby at at $80 a night  price lol.  Check out these 2 tiny pillow squares on the bed.lol don't fly into houston airport in the morning and expect anything earlier than 1:30 check in. Front desk has zero social skills and lacks proper English. Nice alternatives nearby for the same price on priceline..MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Houston - Katy, responded to this reviewResponded August 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2015</t>
+  </si>
+  <si>
+    <t>This place is a stinky $80 a night dump . Waited 6 hours to check in. A bare bones dump worse than living on an island shipwrecked. Forgotten toiletries are available in vending machine in the lobby at at $80 a night  price lol.  Check out these 2 tiny pillow squares on the bed.lol don't fly into houston airport in the morning and expect anything earlier than 1:30 check in. Front desk has zero social skills and lacks proper English. Nice alternatives nearby for the same price on priceline..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r290562345-Motel_6_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>290562345</t>
+  </si>
+  <si>
+    <t>07/19/2015</t>
+  </si>
+  <si>
+    <t>Dirtiest Motel 6 I've ever been in!</t>
+  </si>
+  <si>
+    <t>Advertised a breakfast bar - None, but they did have coffee;  Ice machine was not maintained or functioning properly;  Room floor was filthy and needed to be mopped (had no carpet);  Many ants by air conditioning unit on the floor - in the 55 years I've traveled, I have never experienced this many ants anywhere;  Sink drained very slowly - 5 minutes to be emptied each time we used it; Chunks of blood and hair on the walls in the bathroom on either side of the toilet;  Water presser made taking a shower difficult and long;  Room needed to be totally wiped down due to so much grime and dust on the little furniture that was there;  Filthy dirty bedspread;  Did not use the free WiFi as was reviewed as terrible, so did not bother to bring a laptop;  Finally, the maids literately would fight us for the one elevator by barring the door with their carts.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Houston - Katy, responded to this reviewResponded July 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2015</t>
+  </si>
+  <si>
+    <t>Advertised a breakfast bar - None, but they did have coffee;  Ice machine was not maintained or functioning properly;  Room floor was filthy and needed to be mopped (had no carpet);  Many ants by air conditioning unit on the floor - in the 55 years I've traveled, I have never experienced this many ants anywhere;  Sink drained very slowly - 5 minutes to be emptied each time we used it; Chunks of blood and hair on the walls in the bathroom on either side of the toilet;  Water presser made taking a shower difficult and long;  Room needed to be totally wiped down due to so much grime and dust on the little furniture that was there;  Filthy dirty bedspread;  Did not use the free WiFi as was reviewed as terrible, so did not bother to bring a laptop;  Finally, the maids literately would fight us for the one elevator by barring the door with their carts.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r267968921-Motel_6_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>267968921</t>
+  </si>
+  <si>
+    <t>04/25/2015</t>
+  </si>
+  <si>
+    <t>Cleanest Motel 6 I ever been!!!</t>
+  </si>
+  <si>
+    <t>It was so nice to stay at a motel that was not just economic, but very clean as well....The staff was very courteous, helpful and professional with my accommodations .. I look forward to staying here again!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Nick P, General Manager at Motel 6 Houston - Katy, responded to this reviewResponded May 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2015</t>
+  </si>
+  <si>
+    <t>It was so nice to stay at a motel that was not just economic, but very clean as well....The staff was very courteous, helpful and professional with my accommodations .. I look forward to staying here again!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r227419973-Motel_6_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>227419973</t>
+  </si>
+  <si>
+    <t>09/07/2014</t>
+  </si>
+  <si>
+    <t>great place surprising place for motel 6</t>
+  </si>
+  <si>
+    <t>not sure why why few of the others have complained about the wifi i have stayed there multiple times and never had any issues with there free wifi they have never charged and have stayed there on and off for the last 3 years. major renovation in the last 6 months.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>not sure why why few of the others have complained about the wifi i have stayed there multiple times and never had any issues with there free wifi they have never charged and have stayed there on and off for the last 3 years. major renovation in the last 6 months.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r220240991-Motel_6_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>220240991</t>
+  </si>
+  <si>
+    <t>08/07/2014</t>
+  </si>
+  <si>
+    <t>worst wifi ever</t>
+  </si>
+  <si>
+    <t>I had to pay $2.99 for a 24hrs wifi but this didnt work at all! the signal was to poor!!! had to be close to the door to find some signal...by the other hand the room was clean enough to spend a good time there and personal was kind. If you dont need wifi do not waste your money and try to make your stay as good as can be ;)MoreShow less</t>
+  </si>
+  <si>
+    <t>nick P, General Manager at Motel 6 Houston - Katy, responded to this reviewResponded August 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2014</t>
+  </si>
+  <si>
+    <t>I had to pay $2.99 for a 24hrs wifi but this didnt work at all! the signal was to poor!!! had to be close to the door to find some signal...by the other hand the room was clean enough to spend a good time there and personal was kind. If you dont need wifi do not waste your money and try to make your stay as good as can be ;)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r195031432-Motel_6_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>195031432</t>
+  </si>
+  <si>
+    <t>02/22/2014</t>
+  </si>
+  <si>
+    <t>Liars</t>
+  </si>
+  <si>
+    <t>I am in the Motel 6, in Katy, Texas. I was charged more at this motel than any other I have gone to throughout the nation. Room rates are around sixty nine dollars a night. I have a corporate discount, however, so I get a little break. I have a Smart Phone, IPad Mini and a laptop. I am a truck driver and needed internet, since being on the road so much. I was told that they have internet. They do not, none of my devices connect, and the woman who checked me in still claims that they do and it is working. She couldn't connect my laptop though. She connected my IPad Mini long enough to get back to my room. 
+Finally, at eleven a new shift comes in and there are now four people at the desk, all telling me that the internet works. I was informed, however, that the Password wasn't "apple," as I was told ten times, bit it is "apple002." Next, I was told sometimes "apple" works, sometimes "apple002" works. Well, I still don't have internet, the young man desk clerk, who acted as if he knew everything couldn't connect, but what is so frustrating, is that they all still claim that it is my Smart Phone, my Tablet, and my laptop, that are in error. 
+The man on one side of his face is steadfastly purporting that it is my devices that are at...I am in the Motel 6, in Katy, Texas. I was charged more at this motel than any other I have gone to throughout the nation. Room rates are around sixty nine dollars a night. I have a corporate discount, however, so I get a little break. I have a Smart Phone, IPad Mini and a laptop. I am a truck driver and needed internet, since being on the road so much. I was told that they have internet. They do not, none of my devices connect, and the woman who checked me in still claims that they do and it is working. She couldn't connect my laptop though. She connected my IPad Mini long enough to get back to my room. Finally, at eleven a new shift comes in and there are now four people at the desk, all telling me that the internet works. I was informed, however, that the Password wasn't "apple," as I was told ten times, bit it is "apple002." Next, I was told sometimes "apple" works, sometimes "apple002" works. Well, I still don't have internet, the young man desk clerk, who acted as if he knew everything couldn't connect, but what is so frustrating, is that they all still claim that it is my Smart Phone, my Tablet, and my laptop, that are in error. The man on one side of his face is steadfastly purporting that it is my devices that are at fault, because "no one else is complaining." But then he tells me that they "sometimes have issues with their router." So, three or four times, I ask him, "Well, then what are you saying, it is my devices or your router?" He still gives me the same two answers, that it has to be me, but "yes, they might be having issues with their router." Then, finally, he tells me with a big grin, "that perhaps it is the router, they will call a repair guy in the morning, thanks for informing them."Well, if you like motels with smart alec, ignorant employees, who don't give a rat's behind about your needs, who use deception and lies to purchase your business, then this is the place.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>I am in the Motel 6, in Katy, Texas. I was charged more at this motel than any other I have gone to throughout the nation. Room rates are around sixty nine dollars a night. I have a corporate discount, however, so I get a little break. I have a Smart Phone, IPad Mini and a laptop. I am a truck driver and needed internet, since being on the road so much. I was told that they have internet. They do not, none of my devices connect, and the woman who checked me in still claims that they do and it is working. She couldn't connect my laptop though. She connected my IPad Mini long enough to get back to my room. 
+Finally, at eleven a new shift comes in and there are now four people at the desk, all telling me that the internet works. I was informed, however, that the Password wasn't "apple," as I was told ten times, bit it is "apple002." Next, I was told sometimes "apple" works, sometimes "apple002" works. Well, I still don't have internet, the young man desk clerk, who acted as if he knew everything couldn't connect, but what is so frustrating, is that they all still claim that it is my Smart Phone, my Tablet, and my laptop, that are in error. 
+The man on one side of his face is steadfastly purporting that it is my devices that are at...I am in the Motel 6, in Katy, Texas. I was charged more at this motel than any other I have gone to throughout the nation. Room rates are around sixty nine dollars a night. I have a corporate discount, however, so I get a little break. I have a Smart Phone, IPad Mini and a laptop. I am a truck driver and needed internet, since being on the road so much. I was told that they have internet. They do not, none of my devices connect, and the woman who checked me in still claims that they do and it is working. She couldn't connect my laptop though. She connected my IPad Mini long enough to get back to my room. Finally, at eleven a new shift comes in and there are now four people at the desk, all telling me that the internet works. I was informed, however, that the Password wasn't "apple," as I was told ten times, bit it is "apple002." Next, I was told sometimes "apple" works, sometimes "apple002" works. Well, I still don't have internet, the young man desk clerk, who acted as if he knew everything couldn't connect, but what is so frustrating, is that they all still claim that it is my Smart Phone, my Tablet, and my laptop, that are in error. The man on one side of his face is steadfastly purporting that it is my devices that are at fault, because "no one else is complaining." But then he tells me that they "sometimes have issues with their router." So, three or four times, I ask him, "Well, then what are you saying, it is my devices or your router?" He still gives me the same two answers, that it has to be me, but "yes, they might be having issues with their router." Then, finally, he tells me with a big grin, "that perhaps it is the router, they will call a repair guy in the morning, thanks for informing them."Well, if you like motels with smart alec, ignorant employees, who don't give a rat's behind about your needs, who use deception and lies to purchase your business, then this is the place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r193609609-Motel_6_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>193609609</t>
+  </si>
+  <si>
+    <t>02/09/2014</t>
+  </si>
+  <si>
+    <t>They are trying</t>
+  </si>
+  <si>
+    <t>After going to two hotel's that were booked up, i went to the motel 6 knowing they had a bad review i had to check in. the front desk clerk ( John ) was very helpful,the room he gave me was on the first floor where i just knew i would'nt get any sleep for the noise, but i was wrong, I slept very well. the next morning i was awaken by the smell of fresh coffee in the lobby. I ended up stay three days more than plan. They are trying to make you as comfortable as they can. I will stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>After going to two hotel's that were booked up, i went to the motel 6 knowing they had a bad review i had to check in. the front desk clerk ( John ) was very helpful,the room he gave me was on the first floor where i just knew i would'nt get any sleep for the noise, but i was wrong, I slept very well. the next morning i was awaken by the smell of fresh coffee in the lobby. I ended up stay three days more than plan. They are trying to make you as comfortable as they can. I will stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r192300643-Motel_6_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>192300643</t>
+  </si>
+  <si>
+    <t>01/27/2014</t>
+  </si>
+  <si>
+    <t>Staff is the best thing about this place</t>
+  </si>
+  <si>
+    <t>Stayed here for awhile...they are doing renovation now, which hopefully will make things better. But overall, the Wi-Fi never works, the tv doesn't get all the channels, half of those that do are static. Having changed rooms a couple times, the keys are problematic, the showers (no tubs) are either too sluggish or too cold. Roaches have been a problem, but I have to admit that if you report it, maintenance is there spraying the same day. A/C-Heat is unable to go on auto, so is constantly running. Honestly the staff is very nice, most are helpful but there are a few that have their kids running around behind the desk, so that's not very professional. MoreShow less</t>
+  </si>
+  <si>
+    <t>nick P, Manager at Motel 6 Houston - Katy, responded to this reviewResponded January 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here for awhile...they are doing renovation now, which hopefully will make things better. But overall, the Wi-Fi never works, the tv doesn't get all the channels, half of those that do are static. Having changed rooms a couple times, the keys are problematic, the showers (no tubs) are either too sluggish or too cold. Roaches have been a problem, but I have to admit that if you report it, maintenance is there spraying the same day. A/C-Heat is unable to go on auto, so is constantly running. Honestly the staff is very nice, most are helpful but there are a few that have their kids running around behind the desk, so that's not very professional. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r187930860-Motel_6_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>187930860</t>
+  </si>
+  <si>
+    <t>12/17/2013</t>
+  </si>
+  <si>
+    <t>Currently Renovating...but sheesh...needs some Reno in the Rooms.</t>
+  </si>
+  <si>
+    <t>The lobby looks...nice.  It seems as if this was another hotel and Motel 6 purchased it and made the signage changes because it doesn't seem right.  It doesn't seem right because it's trying to be something it isn't.  I mean even with this (true hotel look) location it still doesn't offer a continental breakfast.  This Motel 6 is currently under some renovations and painting.  The paint smell is quite strong and nauseating.  I am one of those individuals who cannot stand the smell of paint.  The paint smell is in the room as well.  I asked for a pet friendly room and was told they are all located on the 3rd floor.  Ugh!  Well at least there's an elevator.  But really?!  The carpeting is a beige color and it has boot marks and cigarette burns.  The leatherette chair has a HUGE gash on the seat bottom cushion.  At least there is a mini fridge and microwave.  I also noticed a huge column-like wall and then found out it was due to the large shower.  The shower looks pretty good and can fit probably 3 people.  It's like cavern.  Odd looking floating nightstands.  An older TV (not flat screen).MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>nick P, General Manager at Motel 6 Houston - Katy, responded to this reviewResponded January 29, 2014</t>
+  </si>
+  <si>
+    <t>The lobby looks...nice.  It seems as if this was another hotel and Motel 6 purchased it and made the signage changes because it doesn't seem right.  It doesn't seem right because it's trying to be something it isn't.  I mean even with this (true hotel look) location it still doesn't offer a continental breakfast.  This Motel 6 is currently under some renovations and painting.  The paint smell is quite strong and nauseating.  I am one of those individuals who cannot stand the smell of paint.  The paint smell is in the room as well.  I asked for a pet friendly room and was told they are all located on the 3rd floor.  Ugh!  Well at least there's an elevator.  But really?!  The carpeting is a beige color and it has boot marks and cigarette burns.  The leatherette chair has a HUGE gash on the seat bottom cushion.  At least there is a mini fridge and microwave.  I also noticed a huge column-like wall and then found out it was due to the large shower.  The shower looks pretty good and can fit probably 3 people.  It's like cavern.  Odd looking floating nightstands.  An older TV (not flat screen).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r187004131-Motel_6_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>187004131</t>
+  </si>
+  <si>
+    <t>12/07/2013</t>
+  </si>
+  <si>
+    <t>First Time Eviction</t>
+  </si>
+  <si>
+    <t>Checked in with reservations at 11 pm. Night clerk said 1 pm check-out no problem. Told morning front desk clerk, Mgr Alex Villagomez, that light over sink not working, as I was leaving about 9 am. Great Wi-Fi, great brand new modern shower and hot. Cover hanging off AC unit, exposed TV cable wires thru hallway and signs of camera ripped from ceiling. I lost track of time at job site and called to extend stay one night. Mgr answered and said no sign of late check-out in computer. Check-out at 11 so items removed and left behind front desk. Asked about food in frig. He said it's gone. Housekeeping should have removed it. I asked couldn't he have called me to see if plans had changed to extend stay. He didn't answer. SILENCE! After a few minutes back and forth complaining, he offered a discount. When I returned about 7 pm, a different night clerk said no notes in computer about discount and room 210 was given to new guest. I have traveled from Baltimore to Arizona this year and have never been EVICTED from a hotel or motel room. Good location close to job site, bad leadership decision. It won't happen twice at this location. Too many options. I stayed somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>nick P, General Manager at Motel 6 Houston - Katy, responded to this reviewResponded December 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2013</t>
+  </si>
+  <si>
+    <t>Checked in with reservations at 11 pm. Night clerk said 1 pm check-out no problem. Told morning front desk clerk, Mgr Alex Villagomez, that light over sink not working, as I was leaving about 9 am. Great Wi-Fi, great brand new modern shower and hot. Cover hanging off AC unit, exposed TV cable wires thru hallway and signs of camera ripped from ceiling. I lost track of time at job site and called to extend stay one night. Mgr answered and said no sign of late check-out in computer. Check-out at 11 so items removed and left behind front desk. Asked about food in frig. He said it's gone. Housekeeping should have removed it. I asked couldn't he have called me to see if plans had changed to extend stay. He didn't answer. SILENCE! After a few minutes back and forth complaining, he offered a discount. When I returned about 7 pm, a different night clerk said no notes in computer about discount and room 210 was given to new guest. I have traveled from Baltimore to Arizona this year and have never been EVICTED from a hotel or motel room. Good location close to job site, bad leadership decision. It won't happen twice at this location. Too many options. I stayed somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r183849151-Motel_6_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>183849151</t>
+  </si>
+  <si>
+    <t>11/06/2013</t>
+  </si>
+  <si>
+    <t>Gross worst ever!</t>
+  </si>
+  <si>
+    <t>Cockroaches in the bathroom, cigarette holes covering the entire carpet, the heating.cooling mechanism so loud that even though I have a hearing loss, I had to turn it off to sleep!  There were no hangers and I asked 2 different employees yet never got any hangers over the 3 nights I stayed.  If it wasn't so close to the people I was visiting, I would definitely have left after check in. Do NOT go to this hotel - it is terrible!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>nick P, General Manager at Motel 6 Houston - Katy, responded to this reviewResponded November 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2013</t>
+  </si>
+  <si>
+    <t>Cockroaches in the bathroom, cigarette holes covering the entire carpet, the heating.cooling mechanism so loud that even though I have a hearing loss, I had to turn it off to sleep!  There were no hangers and I asked 2 different employees yet never got any hangers over the 3 nights I stayed.  If it wasn't so close to the people I was visiting, I would definitely have left after check in. Do NOT go to this hotel - it is terrible!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r159590108-Motel_6_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>159590108</t>
+  </si>
+  <si>
+    <t>05/03/2013</t>
+  </si>
+  <si>
+    <t>great value</t>
+  </si>
+  <si>
+    <t>Quite a nice Motel 6, Clean, friendly staff, .good nights sleep, That is generally all I ask for. I would stay here again, The grounds are kept quite nice. The bedding was your average motel 6 type, I travel for a living and when I have a bargain I take it.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>nick P, Owner at Motel 6 Houston - Katy, responded to this reviewResponded July 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2013</t>
+  </si>
+  <si>
+    <t>Quite a nice Motel 6, Clean, friendly staff, .good nights sleep, That is generally all I ask for. I would stay here again, The grounds are kept quite nice. The bedding was your average motel 6 type, I travel for a living and when I have a bargain I take it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r150890085-Motel_6_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>150890085</t>
+  </si>
+  <si>
+    <t>01/28/2013</t>
+  </si>
+  <si>
+    <t>Ridiculous</t>
+  </si>
+  <si>
+    <t>The management sets the television volume at such a low level you can't hear it when you run the air conditioner.  Considering this is South Texas, you'll want to run the a/c.  So unless you are a foot away from the tv you can't hear a thing.  I also have a broken window in my room.  Definitely a low class motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>nick P, Owner at Motel 6 Houston - Katy, responded to this reviewResponded May 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2013</t>
+  </si>
+  <si>
+    <t>The management sets the television volume at such a low level you can't hear it when you run the air conditioner.  Considering this is South Texas, you'll want to run the a/c.  So unless you are a foot away from the tv you can't hear a thing.  I also have a broken window in my room.  Definitely a low class motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r148087153-Motel_6_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>148087153</t>
+  </si>
+  <si>
+    <t>12/26/2012</t>
+  </si>
+  <si>
+    <t>Pleasant stay</t>
+  </si>
+  <si>
+    <t>We always travel with our dogs and have always stayed at LaQuinta.  We go to Katy quite often as we have family there.  We just rescued a new dog, so now we have 3 - all under 20 pounds.  LaQuinta will no longer allow us to stay there due to a 2 pet limit - even though our furry kids are more well behaved that most human kids.  3 pets was NOT a problem for this Motel 6 - it was the ONLY hotel/motel/inn that would allow more than 2 pets.  PROS:  Friendly &amp; courteous staff, clean &amp; quiet room, fridge &amp; microwave, nice area for pet walking, very reasonable rates, comfortable beds, good security since there is only one way in the buildingCONS:  no hair dryer (though there was a spot on the wall where one used to be), no coffee pot (available in the lobby but that meant getting dressed to go get a cup), no clock.We had a very pleasant 3 nights &amp; will stay there again - I will just pack a small coffee pot &amp; hair dryer from now on.A fenced in doggie area, like LaQuinta has, would be a nice addition since they are pet friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>We always travel with our dogs and have always stayed at LaQuinta.  We go to Katy quite often as we have family there.  We just rescued a new dog, so now we have 3 - all under 20 pounds.  LaQuinta will no longer allow us to stay there due to a 2 pet limit - even though our furry kids are more well behaved that most human kids.  3 pets was NOT a problem for this Motel 6 - it was the ONLY hotel/motel/inn that would allow more than 2 pets.  PROS:  Friendly &amp; courteous staff, clean &amp; quiet room, fridge &amp; microwave, nice area for pet walking, very reasonable rates, comfortable beds, good security since there is only one way in the buildingCONS:  no hair dryer (though there was a spot on the wall where one used to be), no coffee pot (available in the lobby but that meant getting dressed to go get a cup), no clock.We had a very pleasant 3 nights &amp; will stay there again - I will just pack a small coffee pot &amp; hair dryer from now on.A fenced in doggie area, like LaQuinta has, would be a nice addition since they are pet friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r137815553-Motel_6_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>137815553</t>
+  </si>
+  <si>
+    <t>08/20/2012</t>
+  </si>
+  <si>
+    <t>Pleasantly Surprised</t>
+  </si>
+  <si>
+    <t>This is not the usual Motel 6.  Room had a microwave, refrigerator, office chair, desk, and free WiFi.   Certainly the sleeping area and bathroom were more spacious. Hotel was probably owned by another chain before becoming a Motel 6.  Staff was pleasant and offered information on immediate dining possibilities.  Easy on and off access to I-10.  Will stay there again but will book on the internet.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>This is not the usual Motel 6.  Room had a microwave, refrigerator, office chair, desk, and free WiFi.   Certainly the sleeping area and bathroom were more spacious. Hotel was probably owned by another chain before becoming a Motel 6.  Staff was pleasant and offered information on immediate dining possibilities.  Easy on and off access to I-10.  Will stay there again but will book on the internet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r124502275-Motel_6_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>124502275</t>
+  </si>
+  <si>
+    <t>02/12/2012</t>
+  </si>
+  <si>
+    <t>Clean room, good amenities and location for the price</t>
+  </si>
+  <si>
+    <t>Great stay for the horse show. Close to the facility, clean, cheap, fridge, microwave, pet friendly, and good service. Would highly recommend for busisness, horse show, or a stop while driving through. Yes, you can hear the freeway, and the decor is a bit outdated. However, everything is neat and clean, rooms are plenty big, and the price is good.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r120460437-Motel_6_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>120460437</t>
+  </si>
+  <si>
+    <t>11/11/2011</t>
+  </si>
+  <si>
+    <t>Better than expected</t>
+  </si>
+  <si>
+    <t>Nice clean, safe place.  You couldn't ask for more for what you pay.  Room had refrigerator and microwave.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r66558952-Motel_6_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>66558952</t>
+  </si>
+  <si>
+    <t>06/05/2010</t>
+  </si>
+  <si>
+    <t>Don't leave Valuables</t>
+  </si>
+  <si>
+    <t>-Very nice new clean hotel. -We stayed in a suite; Beds very comfortable. BUTAwoken at 4:00am by Houston Police, many FORD vehicles broke into. Stereo system and other items stolen. Parked in front by the door.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>-Very nice new clean hotel. -We stayed in a suite; Beds very comfortable. BUTAwoken at 4:00am by Houston Police, many FORD vehicles broke into. Stereo system and other items stolen. Parked in front by the door.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1052,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1084,1541 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>30270</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>30270</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>30270</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>30270</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>30270</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>81</v>
+      </c>
+      <c r="X6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>30270</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>90</v>
+      </c>
+      <c r="X7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>30270</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X8" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>30270</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O9" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>99</v>
+      </c>
+      <c r="X9" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>30270</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>114</v>
+      </c>
+      <c r="X10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>30270</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>30270</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" t="s">
+        <v>128</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>114</v>
+      </c>
+      <c r="X12" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>30270</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" t="s">
+        <v>133</v>
+      </c>
+      <c r="L13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>135</v>
+      </c>
+      <c r="X13" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>30270</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" t="s">
+        <v>142</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>143</v>
+      </c>
+      <c r="O14" t="s">
+        <v>67</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>144</v>
+      </c>
+      <c r="X14" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>30270</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" t="s">
+        <v>148</v>
+      </c>
+      <c r="K15" t="s">
+        <v>149</v>
+      </c>
+      <c r="L15" t="s">
+        <v>150</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>143</v>
+      </c>
+      <c r="O15" t="s">
+        <v>74</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>151</v>
+      </c>
+      <c r="X15" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>30270</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>155</v>
+      </c>
+      <c r="J16" t="s">
+        <v>156</v>
+      </c>
+      <c r="K16" t="s">
+        <v>157</v>
+      </c>
+      <c r="L16" t="s">
+        <v>158</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>159</v>
+      </c>
+      <c r="O16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>160</v>
+      </c>
+      <c r="X16" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>30270</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>164</v>
+      </c>
+      <c r="J17" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" t="s">
+        <v>166</v>
+      </c>
+      <c r="L17" t="s">
+        <v>167</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>168</v>
+      </c>
+      <c r="O17" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>169</v>
+      </c>
+      <c r="X17" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>30270</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>173</v>
+      </c>
+      <c r="J18" t="s">
+        <v>174</v>
+      </c>
+      <c r="K18" t="s">
+        <v>175</v>
+      </c>
+      <c r="L18" t="s">
+        <v>176</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>177</v>
+      </c>
+      <c r="X18" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>30270</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>180</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J19" t="s">
+        <v>182</v>
+      </c>
+      <c r="K19" t="s">
+        <v>183</v>
+      </c>
+      <c r="L19" t="s">
+        <v>184</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>185</v>
+      </c>
+      <c r="O19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>169</v>
+      </c>
+      <c r="X19" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>30270</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>188</v>
+      </c>
+      <c r="J20" t="s">
+        <v>189</v>
+      </c>
+      <c r="K20" t="s">
+        <v>190</v>
+      </c>
+      <c r="L20" t="s">
+        <v>191</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>192</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>169</v>
+      </c>
+      <c r="X20" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>30270</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>195</v>
+      </c>
+      <c r="J21" t="s">
+        <v>196</v>
+      </c>
+      <c r="K21" t="s">
+        <v>197</v>
+      </c>
+      <c r="L21" t="s">
+        <v>198</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>199</v>
+      </c>
+      <c r="O21" t="s">
+        <v>67</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>30270</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>201</v>
+      </c>
+      <c r="J22" t="s">
+        <v>202</v>
+      </c>
+      <c r="K22" t="s">
+        <v>203</v>
+      </c>
+      <c r="L22" t="s">
+        <v>204</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>205</v>
+      </c>
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>30270</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>206</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>207</v>
+      </c>
+      <c r="J23" t="s">
+        <v>208</v>
+      </c>
+      <c r="K23" t="s">
+        <v>209</v>
+      </c>
+      <c r="L23" t="s">
+        <v>210</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>211</v>
+      </c>
+      <c r="O23" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>177</v>
+      </c>
+      <c r="X23" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_503.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_503.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="322">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,72 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r575221807-Motel_6_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>56062</t>
+  </si>
+  <si>
+    <t>106812</t>
+  </si>
+  <si>
+    <t>575221807</t>
+  </si>
+  <si>
+    <t>04/23/2018</t>
+  </si>
+  <si>
+    <t>STAY AWAY!!</t>
+  </si>
+  <si>
+    <t>This is by far the worst Motel 6 I have ever stayed in. There were bugs in the room. The ice bucket had mold in them. There were pubic hair on the sheets and all over the bathroom floors. The bathroom door did not lock .  The pool was disgusting, and look like it had never been cleaned with no water running to it whatsoever. Advise you to not stay at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>6Team, Guest Relations Manager at Motel 6 Houston - Katy, responded to this reviewResponded April 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2018</t>
+  </si>
+  <si>
+    <t>This is by far the worst Motel 6 I have ever stayed in. There were bugs in the room. The ice bucket had mold in them. There were pubic hair on the sheets and all over the bathroom floors. The bathroom door did not lock .  The pool was disgusting, and look like it had never been cleaned with no water running to it whatsoever. Advise you to not stay at this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r502055138-Motel_6_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>502055138</t>
+  </si>
+  <si>
+    <t>07/14/2017</t>
+  </si>
+  <si>
+    <t>Don't do it!</t>
+  </si>
+  <si>
+    <t>Katy, TX is a very nice area with a lot of nice places to stay.  We made the mistake of choosing Motel 6.  The motel was in dire need of renovations.  Looks nice on the outside.  The inside, not so much!  Old I can look past, but dirty and poor service not acceptable.  Our room had a horrible odor (reeked of cigarette smoke) and the bathroom was just gross.  We had popcorn on the floor under our beds and the bed linens had nail polish/stains and hairs all over them.  After a few short hours of rest we decided we just couldn't do it!  Packed it up and headed to lobby to check out.  There were 3 other customers waiting for service in lobby.  We rang the bell, called the phone number to no avail... No one ever came out to help us.  We put the key in the room and just left.  What a waist of time and $$.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Katy, TX is a very nice area with a lot of nice places to stay.  We made the mistake of choosing Motel 6.  The motel was in dire need of renovations.  Looks nice on the outside.  The inside, not so much!  Old I can look past, but dirty and poor service not acceptable.  Our room had a horrible odor (reeked of cigarette smoke) and the bathroom was just gross.  We had popcorn on the floor under our beds and the bed linens had nail polish/stains and hairs all over them.  After a few short hours of rest we decided we just couldn't do it!  Packed it up and headed to lobby to check out.  There were 3 other customers waiting for service in lobby.  We rang the bell, called the phone number to no avail... No one ever came out to help us.  We put the key in the room and just left.  What a waist of time and $$.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r411562786-Motel_6_Houston_Katy-Katy_Texas.html</t>
   </si>
   <si>
-    <t>56062</t>
-  </si>
-  <si>
-    <t>106812</t>
-  </si>
-  <si>
     <t>411562786</t>
   </si>
   <si>
@@ -198,9 +252,6 @@
     <t>I was traveling with my mom on a two week road trip and we stop here for the night around 3:30PM. The rooms were clean and the staff was nice. The did not have outside access to room you had to enter through the front and take an elevator. My only complaint was the room seem like it was just cleaned with some type of chemical and the smell never went away.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r378397190-Motel_6_Houston_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -222,6 +273,54 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r342722891-Motel_6_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>342722891</t>
+  </si>
+  <si>
+    <t>01/25/2016</t>
+  </si>
+  <si>
+    <t>need ID to use luggage cart after you have checked in</t>
+  </si>
+  <si>
+    <t>When  I checked in I provided ID with my credit card, my room was on 3rd floor and I had to make numerous trips to unpack my car, !/2 way through the desk clerk advised they had a luggage cart (they kept  hidden) I could use and I did. After moving my belongings in I noticed there was no tissue in the holder, when I returned the luggage cart I asked if I could have some tissue, the clerks could no find any, it was all locked up, so I was offered another role of toilet paper. When checking out in the morning I took one load to my car which was in the front, on the way back I asked if I could use the luggage cart again to check out, the clerk advised she needed my ID to use it, I showed her my room card which she said would not be good enough I told her I showed my ID upon check in that is how I got my room card and my credit card was still on file, I did not have my wallet with me it was in my room, she replied that was too bad, I made the numerous trips to and from my room to load my vehicle. Upon check out I did not even get a sorry. When I got my receipt it was not for the amount quoted when I made...When  I checked in I provided ID with my credit card, my room was on 3rd floor and I had to make numerous trips to unpack my car, !/2 way through the desk clerk advised they had a luggage cart (they kept  hidden) I could use and I did. After moving my belongings in I noticed there was no tissue in the holder, when I returned the luggage cart I asked if I could have some tissue, the clerks could no find any, it was all locked up, so I was offered another role of toilet paper. When checking out in the morning I took one load to my car which was in the front, on the way back I asked if I could use the luggage cart again to check out, the clerk advised she needed my ID to use it, I showed her my room card which she said would not be good enough I told her I showed my ID upon check in that is how I got my room card and my credit card was still on file, I did not have my wallet with me it was in my room, she replied that was too bad, I made the numerous trips to and from my room to load my vehicle. Upon check out I did not even get a sorry. When I got my receipt it was not for the amount quoted when I made my reservation, when I advised this friendly clerk , the response was who did I speak to when I made the reservation, my answer was "the person who answered the phone" I advised that she should be able find that out easier than me. The answer was "no" and that I was charged the proper rate. You can bet I will be rushing right back there the next time I stay in Houston, with her attitude she no doubt made an impression on other ex guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>When  I checked in I provided ID with my credit card, my room was on 3rd floor and I had to make numerous trips to unpack my car, !/2 way through the desk clerk advised they had a luggage cart (they kept  hidden) I could use and I did. After moving my belongings in I noticed there was no tissue in the holder, when I returned the luggage cart I asked if I could have some tissue, the clerks could no find any, it was all locked up, so I was offered another role of toilet paper. When checking out in the morning I took one load to my car which was in the front, on the way back I asked if I could use the luggage cart again to check out, the clerk advised she needed my ID to use it, I showed her my room card which she said would not be good enough I told her I showed my ID upon check in that is how I got my room card and my credit card was still on file, I did not have my wallet with me it was in my room, she replied that was too bad, I made the numerous trips to and from my room to load my vehicle. Upon check out I did not even get a sorry. When I got my receipt it was not for the amount quoted when I made...When  I checked in I provided ID with my credit card, my room was on 3rd floor and I had to make numerous trips to unpack my car, !/2 way through the desk clerk advised they had a luggage cart (they kept  hidden) I could use and I did. After moving my belongings in I noticed there was no tissue in the holder, when I returned the luggage cart I asked if I could have some tissue, the clerks could no find any, it was all locked up, so I was offered another role of toilet paper. When checking out in the morning I took one load to my car which was in the front, on the way back I asked if I could use the luggage cart again to check out, the clerk advised she needed my ID to use it, I showed her my room card which she said would not be good enough I told her I showed my ID upon check in that is how I got my room card and my credit card was still on file, I did not have my wallet with me it was in my room, she replied that was too bad, I made the numerous trips to and from my room to load my vehicle. Upon check out I did not even get a sorry. When I got my receipt it was not for the amount quoted when I made my reservation, when I advised this friendly clerk , the response was who did I speak to when I made the reservation, my answer was "the person who answered the phone" I advised that she should be able find that out easier than me. The answer was "no" and that I was charged the proper rate. You can bet I will be rushing right back there the next time I stay in Houston, with her attitude she no doubt made an impression on other ex guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r321363624-Motel_6_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>321363624</t>
+  </si>
+  <si>
+    <t>10/24/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No proper services available </t>
+  </si>
+  <si>
+    <t>Too much money and no proper services available .when we booked the motel on the website  says microwave available but it was not available .when ask at the reception no proper answer was given .They hardly bothered about the bad rating when i told them about it. Comforters were not given on the first night .No one comes clean the room after ask them to come after some time .Highly disappointed with their services .MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Houston - Katy, responded to this reviewResponded October 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2015</t>
+  </si>
+  <si>
+    <t>Too much money and no proper services available .when we booked the motel on the website  says microwave available but it was not available .when ask at the reception no proper answer was given .They hardly bothered about the bad rating when i told them about it. Comforters were not given on the first night .No one comes clean the room after ask them to come after some time .Highly disappointed with their services .More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r303534686-Motel_6_Houston_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -240,9 +339,6 @@
     <t>August 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r299945294-Motel_6_Houston_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -297,6 +393,48 @@
     <t>Advertised a breakfast bar - None, but they did have coffee;  Ice machine was not maintained or functioning properly;  Room floor was filthy and needed to be mopped (had no carpet);  Many ants by air conditioning unit on the floor - in the 55 years I've traveled, I have never experienced this many ants anywhere;  Sink drained very slowly - 5 minutes to be emptied each time we used it; Chunks of blood and hair on the walls in the bathroom on either side of the toilet;  Water presser made taking a shower difficult and long;  Room needed to be totally wiped down due to so much grime and dust on the little furniture that was there;  Filthy dirty bedspread;  Did not use the free WiFi as was reviewed as terrible, so did not bother to bring a laptop;  Finally, the maids literately would fight us for the one elevator by barring the door with their carts.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r273192678-Motel_6_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>273192678</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>Cleanest Motel 6 I've encountered</t>
+  </si>
+  <si>
+    <t>If you're looking for a clean, convenient, no-frills place to lay your head, this is it. I think it used to be a HIE. Typical Motel 6, but it looks recently refreshed. No complaints other than the TV cable was out. Told the clerk upon checkout and she apologized profusely. Wasn't a problem as I immediately hit the sack upon checkin.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r270588278-Motel_6_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>270588278</t>
+  </si>
+  <si>
+    <t>05/07/2015</t>
+  </si>
+  <si>
+    <t>Flexible and welcoming</t>
+  </si>
+  <si>
+    <t>The night desk innkeeper was perfectly accommodating. Pets accepted, yay. Clean, basic, one night, perfect. And the kicker was it is next to an Enterprise Rent a Car that my son needed, and they had the best price for what he needed...one way to L.A.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick P, General Manager at Motel 6 Houston - Katy, responded to this reviewResponded May 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2015</t>
+  </si>
+  <si>
+    <t>The night desk innkeeper was perfectly accommodating. Pets accepted, yay. Clean, basic, one night, perfect. And the kicker was it is next to an Enterprise Rent a Car that my son needed, and they had the best price for what he needed...one way to L.A.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r267968921-Motel_6_Houston_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -315,12 +453,6 @@
     <t>March 2015</t>
   </si>
   <si>
-    <t>Nick P, General Manager at Motel 6 Houston - Katy, responded to this reviewResponded May 10, 2015</t>
-  </si>
-  <si>
-    <t>Responded May 10, 2015</t>
-  </si>
-  <si>
     <t>It was so nice to stay at a motel that was not just economic, but very clean as well....The staff was very courteous, helpful and professional with my accommodations .. I look forward to staying here again!!More</t>
   </si>
   <si>
@@ -367,6 +499,45 @@
   </si>
   <si>
     <t>I had to pay $2.99 for a 24hrs wifi but this didnt work at all! the signal was to poor!!! had to be close to the door to find some signal...by the other hand the room was clean enough to spend a good time there and personal was kind. If you dont need wifi do not waste your money and try to make your stay as good as can be ;)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r214417741-Motel_6_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>214417741</t>
+  </si>
+  <si>
+    <t>07/08/2014</t>
+  </si>
+  <si>
+    <t>Far better than most reviews.  In fact, I'd say this is a great place!</t>
+  </si>
+  <si>
+    <t>I am honestly shocked that how little love this Motel 6 gets in the reviews.  I found the place to be very nicely renovated, everything was sparkling, and the staff was very friendly and able.  While it is true that available amenities are a bit spartan, that's true with every Motel 6 anyways.  The only thing that the negative reviews have gotten right, it seems, is the iffy wifi.  I will definitely come back here if I need a place to stay for a few nights around here.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am honestly shocked that how little love this Motel 6 gets in the reviews.  I found the place to be very nicely renovated, everything was sparkling, and the staff was very friendly and able.  While it is true that available amenities are a bit spartan, that's true with every Motel 6 anyways.  The only thing that the negative reviews have gotten right, it seems, is the iffy wifi.  I will definitely come back here if I need a place to stay for a few nights around here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r197908674-Motel_6_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>197908674</t>
+  </si>
+  <si>
+    <t>03/18/2014</t>
+  </si>
+  <si>
+    <t>Best price 4 good location, bad wifi</t>
+  </si>
+  <si>
+    <t>The title says it all. Can't beat the price for Katy. Sure the hotel isn't as crisp as others, but it's clean and the staff is friendly. Wifi doesn't work most of the time for the 6 days I've been here.  Plan on using a datacard or your phone if you need internet.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>The title says it all. Can't beat the price for Katy. Sure the hotel isn't as crisp as others, but it's clean and the staff is friendly. Wifi doesn't work most of the time for the 6 days I've been here.  Plan on using a datacard or your phone if you need internet.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r195031432-Motel_6_Houston_Katy-Katy_Texas.html</t>
@@ -436,6 +607,51 @@
     <t>Stayed here for awhile...they are doing renovation now, which hopefully will make things better. But overall, the Wi-Fi never works, the tv doesn't get all the channels, half of those that do are static. Having changed rooms a couple times, the keys are problematic, the showers (no tubs) are either too sluggish or too cold. Roaches have been a problem, but I have to admit that if you report it, maintenance is there spraying the same day. A/C-Heat is unable to go on auto, so is constantly running. Honestly the staff is very nice, most are helpful but there are a few that have their kids running around behind the desk, so that's not very professional. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r188661527-Motel_6_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>188661527</t>
+  </si>
+  <si>
+    <t>12/27/2013</t>
+  </si>
+  <si>
+    <t>Run-down old Holiday Inn Express</t>
+  </si>
+  <si>
+    <t>Motel 6 is starting to renovate this old Holiday Inn Express, but in the meantime it is still the same run-down old 1980's-vintage Holiday Inn Express with the same old ramshackle furnishings. My room had a broken air conditioner fascia and ripped desk chair and a hutch thing in the closet area that wobbled like a drunk, all clearly 80's vintage. And for that I paid only $10 less than I would have paid at the Comfort Inn next door. Next stay will be next door, thank you very much.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Motel 6 is starting to renovate this old Holiday Inn Express, but in the meantime it is still the same run-down old 1980's-vintage Holiday Inn Express with the same old ramshackle furnishings. My room had a broken air conditioner fascia and ripped desk chair and a hutch thing in the closet area that wobbled like a drunk, all clearly 80's vintage. And for that I paid only $10 less than I would have paid at the Comfort Inn next door. Next stay will be next door, thank you very much.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r188333769-Motel_6_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>188333769</t>
+  </si>
+  <si>
+    <t>12/22/2013</t>
+  </si>
+  <si>
+    <t>standard for this chain</t>
+  </si>
+  <si>
+    <t>Everything was as expected. late summer, air conditioner worked fine. Close to the interstate and the main drag in Katy. Expensive for this chain, but everything in Katy is, so it is the cheapest in the area, I paid 89$ for one person. Clean room, good tv, nice bed, and the staff were friendly, unlike some hotels in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>nick P, General Manager at Motel 6 Houston - Katy, responded to this reviewResponded January 29, 2014</t>
+  </si>
+  <si>
+    <t>Everything was as expected. late summer, air conditioner worked fine. Close to the interstate and the main drag in Katy. Expensive for this chain, but everything in Katy is, so it is the cheapest in the area, I paid 89$ for one person. Clean room, good tv, nice bed, and the staff were friendly, unlike some hotels in the area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r187930860-Motel_6_Houston_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -451,12 +667,6 @@
     <t>The lobby looks...nice.  It seems as if this was another hotel and Motel 6 purchased it and made the signage changes because it doesn't seem right.  It doesn't seem right because it's trying to be something it isn't.  I mean even with this (true hotel look) location it still doesn't offer a continental breakfast.  This Motel 6 is currently under some renovations and painting.  The paint smell is quite strong and nauseating.  I am one of those individuals who cannot stand the smell of paint.  The paint smell is in the room as well.  I asked for a pet friendly room and was told they are all located on the 3rd floor.  Ugh!  Well at least there's an elevator.  But really?!  The carpeting is a beige color and it has boot marks and cigarette burns.  The leatherette chair has a HUGE gash on the seat bottom cushion.  At least there is a mini fridge and microwave.  I also noticed a huge column-like wall and then found out it was due to the large shower.  The shower looks pretty good and can fit probably 3 people.  It's like cavern.  Odd looking floating nightstands.  An older TV (not flat screen).MoreShow less</t>
   </si>
   <si>
-    <t>December 2013</t>
-  </si>
-  <si>
-    <t>nick P, General Manager at Motel 6 Houston - Katy, responded to this reviewResponded January 29, 2014</t>
-  </si>
-  <si>
     <t>The lobby looks...nice.  It seems as if this was another hotel and Motel 6 purchased it and made the signage changes because it doesn't seem right.  It doesn't seem right because it's trying to be something it isn't.  I mean even with this (true hotel look) location it still doesn't offer a continental breakfast.  This Motel 6 is currently under some renovations and painting.  The paint smell is quite strong and nauseating.  I am one of those individuals who cannot stand the smell of paint.  The paint smell is in the room as well.  I asked for a pet friendly room and was told they are all located on the 3rd floor.  Ugh!  Well at least there's an elevator.  But really?!  The carpeting is a beige color and it has boot marks and cigarette burns.  The leatherette chair has a HUGE gash on the seat bottom cushion.  At least there is a mini fridge and microwave.  I also noticed a huge column-like wall and then found out it was due to the large shower.  The shower looks pretty good and can fit probably 3 people.  It's like cavern.  Odd looking floating nightstands.  An older TV (not flat screen).More</t>
   </si>
   <si>
@@ -511,6 +721,54 @@
     <t>Cockroaches in the bathroom, cigarette holes covering the entire carpet, the heating.cooling mechanism so loud that even though I have a hearing loss, I had to turn it off to sleep!  There were no hangers and I asked 2 different employees yet never got any hangers over the 3 nights I stayed.  If it wasn't so close to the people I was visiting, I would definitely have left after check in. Do NOT go to this hotel - it is terrible!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r172423381-Motel_6_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>172423381</t>
+  </si>
+  <si>
+    <t>08/15/2013</t>
+  </si>
+  <si>
+    <t>This hotel Sucks!!!!!</t>
+  </si>
+  <si>
+    <t>I only stayed one night but that was enough to know that I will never stay at this hotel again.  The staff was friendly when I checked in but the desk associate the next day at check out was uninterested in what I had to say.  I used the pool and was suprised to find that there were no lounge chairs like in the picture, the plastic chairs that were there were broken and I was afraid to sit in them.  Got to my room to find that I did not have a handicapped room because my husband smokes and all the smoking rooms were on the 3rd floor and handicapped rooms are on the 1st floor.  The Carpeting had a big hole in it and you could see where they tried to fix it by sewing a piece of carpet over the hole.  The bathroom only had a shower stall in it there wasn't a tub.  They do not furnish any amenities at this hotel such as shampoo, hand lotion.  We had one bar of soap that lasted through a shower for me and one for my husband. Oh yea, I forgot this one.  If you didn't have a Motel 6 Business card in your windshield with a date on it, your car was towed.  Not a nice way to have a romantic weekend with your hubby.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>nick P, Manager at Motel 6 Houston - Katy, responded to this reviewResponded November 9, 2013</t>
+  </si>
+  <si>
+    <t>I only stayed one night but that was enough to know that I will never stay at this hotel again.  The staff was friendly when I checked in but the desk associate the next day at check out was uninterested in what I had to say.  I used the pool and was suprised to find that there were no lounge chairs like in the picture, the plastic chairs that were there were broken and I was afraid to sit in them.  Got to my room to find that I did not have a handicapped room because my husband smokes and all the smoking rooms were on the 3rd floor and handicapped rooms are on the 1st floor.  The Carpeting had a big hole in it and you could see where they tried to fix it by sewing a piece of carpet over the hole.  The bathroom only had a shower stall in it there wasn't a tub.  They do not furnish any amenities at this hotel such as shampoo, hand lotion.  We had one bar of soap that lasted through a shower for me and one for my husband. Oh yea, I forgot this one.  If you didn't have a Motel 6 Business card in your windshield with a date on it, your car was towed.  Not a nice way to have a romantic weekend with your hubby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r168485167-Motel_6_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>168485167</t>
+  </si>
+  <si>
+    <t>07/21/2013</t>
+  </si>
+  <si>
+    <t>Dont stay here</t>
+  </si>
+  <si>
+    <t>I made a reservation for this motel online we showed up checked in went up to our room tried to open the door andbthe latch from the inside was locked and we heard someone in the room went back down to the lobby to find out one of the staff moved a guy and put him in our room without noting it keep in mind we had a reservation the staff then tried to give us the last room they had which was a single queen and we had three guest they were going togive us a roll out bed that doesn't fly when you paid for two double beds needless to say we left and went to the holiday inn express which was really nice stay I hope this helps save someone and go read the Google reviews MoreShow less</t>
+  </si>
+  <si>
+    <t>nick P, Owner at Motel 6 Houston - Katy, responded to this reviewResponded July 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2013</t>
+  </si>
+  <si>
+    <t>I made a reservation for this motel online we showed up checked in went up to our room tried to open the door andbthe latch from the inside was locked and we heard someone in the room went back down to the lobby to find out one of the staff moved a guy and put him in our room without noting it keep in mind we had a reservation the staff then tried to give us the last room they had which was a single queen and we had three guest they were going togive us a roll out bed that doesn't fly when you paid for two double beds needless to say we left and went to the holiday inn express which was really nice stay I hope this helps save someone and go read the Google reviews More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r159590108-Motel_6_Houston_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -529,12 +787,6 @@
     <t>April 2013</t>
   </si>
   <si>
-    <t>nick P, Owner at Motel 6 Houston - Katy, responded to this reviewResponded July 23, 2013</t>
-  </si>
-  <si>
-    <t>Responded July 23, 2013</t>
-  </si>
-  <si>
     <t>Quite a nice Motel 6, Clean, friendly staff, .good nights sleep, That is generally all I ask for. I would stay here again, The grounds are kept quite nice. The bedding was your average motel 6 type, I travel for a living and when I have a bargain I take it.More</t>
   </si>
   <si>
@@ -583,6 +835,42 @@
     <t>We always travel with our dogs and have always stayed at LaQuinta.  We go to Katy quite often as we have family there.  We just rescued a new dog, so now we have 3 - all under 20 pounds.  LaQuinta will no longer allow us to stay there due to a 2 pet limit - even though our furry kids are more well behaved that most human kids.  3 pets was NOT a problem for this Motel 6 - it was the ONLY hotel/motel/inn that would allow more than 2 pets.  PROS:  Friendly &amp; courteous staff, clean &amp; quiet room, fridge &amp; microwave, nice area for pet walking, very reasonable rates, comfortable beds, good security since there is only one way in the buildingCONS:  no hair dryer (though there was a spot on the wall where one used to be), no coffee pot (available in the lobby but that meant getting dressed to go get a cup), no clock.We had a very pleasant 3 nights &amp; will stay there again - I will just pack a small coffee pot &amp; hair dryer from now on.A fenced in doggie area, like LaQuinta has, would be a nice addition since they are pet friendly.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r145200187-Motel_6_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>145200187</t>
+  </si>
+  <si>
+    <t>11/11/2012</t>
+  </si>
+  <si>
+    <t>Great Value!</t>
+  </si>
+  <si>
+    <t>I usually won't consider Motel 6, but this one was getting good reviews and the price was unbeatable. Not new but updated in this decade it appears. Good location right off I-10 and surprisingly clean for this price range. Doesn't compare to the Hampton next door but it's less than half the price. Room had fridge and microwave but no clock. If you are on a budget this motel is clean, in decent repair and well equipped with micro and fridge for around 60 bucks.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r142777177-Motel_6_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>142777177</t>
+  </si>
+  <si>
+    <t>10/14/2012</t>
+  </si>
+  <si>
+    <t>Great Motel 6!!</t>
+  </si>
+  <si>
+    <t>This was a really nice Motel 6. I think it used to be a hotel, as access to the rooms is from inside the building. But they have carts for luggage, which was very helpful. As usual, this was a pet-friendly place, which we needed as we were traveling with our 50 lb. mutt. The room was very nice, clean, good quality linens, nice HDTV, fridge, and the shower was hot with good water flow. Overall a very nice property, would definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>This was a really nice Motel 6. I think it used to be a hotel, as access to the rooms is from inside the building. But they have carts for luggage, which was very helpful. As usual, this was a pet-friendly place, which we needed as we were traveling with our 50 lb. mutt. The room was very nice, clean, good quality linens, nice HDTV, fridge, and the shower was hot with good water flow. Overall a very nice property, would definitely stay there again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r137815553-Motel_6_Houston_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -640,6 +928,48 @@
     <t>November 2011</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r102789619-Motel_6_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>102789619</t>
+  </si>
+  <si>
+    <t>04/04/2011</t>
+  </si>
+  <si>
+    <t>Staff is EXCELLENT</t>
+  </si>
+  <si>
+    <t>I stayed here March 25, 26 and 27th of 2011. The Staff was wonderful, the room was excellent. I will stay there again. I don't know what everyone else is talking about, but, I have a very pleasent experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>I stayed here March 25, 26 and 27th of 2011. The Staff was wonderful, the room was excellent. I will stay there again. I don't know what everyone else is talking about, but, I have a very pleasent experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r101313138-Motel_6_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>101313138</t>
+  </si>
+  <si>
+    <t>03/23/2011</t>
+  </si>
+  <si>
+    <t>You get what you pay for but the staff is nice!</t>
+  </si>
+  <si>
+    <t>This is your average hotel with a nice staff and friendly service and decent rooms. I had to stay here because the friends that I was traveling did not want to spend money on a hotel in Houston (expensive) and the other hotels were quite expensive as well so we ended up staying here. The rooms could use some renovation but overall, they were decent. The one great thing that I loved about the hotel was the cleanliness of the linens and sheets! Almost all other lower priced hotels that I have stayed in always had a weird scent coming from the sheets but Motel 6's sheets always smelled clean. I think in general that made the whole room smell cleaner too. I loved the staff because they were really nice. No breakfast but that's already stated and not expected because of the cheap price. Overall it was a decent stay but if my friends would've wanted to spend more money, I would have chosen a higher priced hotel. For the price though, it is definitely a good stay because of the nice staff and clean linens! :)MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>This is your average hotel with a nice staff and friendly service and decent rooms. I had to stay here because the friends that I was traveling did not want to spend money on a hotel in Houston (expensive) and the other hotels were quite expensive as well so we ended up staying here. The rooms could use some renovation but overall, they were decent. The one great thing that I loved about the hotel was the cleanliness of the linens and sheets! Almost all other lower priced hotels that I have stayed in always had a weird scent coming from the sheets but Motel 6's sheets always smelled clean. I think in general that made the whole room smell cleaner too. I loved the staff because they were really nice. No breakfast but that's already stated and not expected because of the cheap price. Overall it was a decent stay but if my friends would've wanted to spend more money, I would have chosen a higher priced hotel. For the price though, it is definitely a good stay because of the nice staff and clean linens! :)More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d106812-r66558952-Motel_6_Houston_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -653,9 +983,6 @@
   </si>
   <si>
     <t>-Very nice new clean hotel. -We stayed in a suite; Beds very comfortable. BUTAwoken at 4:00am by Houston Police, many FORD vehicles broke into. Stereo system and other items stolen. Parked in front by the door.MoreShow less</t>
-  </si>
-  <si>
-    <t>June 2010</t>
   </si>
   <si>
     <t>-Very nice new clean hotel. -We stayed in a suite; Beds very comfortable. BUTAwoken at 4:00am by Houston Police, many FORD vehicles broke into. Stereo system and other items stolen. Parked in front by the door.More</t>
@@ -1193,7 +1520,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1210,10 +1537,14 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -1229,7 +1560,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1238,45 +1569,39 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>4</v>
-      </c>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -1292,7 +1617,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1301,45 +1626,39 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>3</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>4</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
@@ -1355,7 +1674,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1364,39 +1683,45 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>70</v>
       </c>
-      <c r="K5" t="s">
-        <v>71</v>
-      </c>
-      <c r="L5" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>73</v>
-      </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -1412,7 +1737,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1421,43 +1746,45 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
       <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>81</v>
-      </c>
-      <c r="X6" t="s">
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
         <v>82</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -1473,7 +1800,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1482,32 +1809,30 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q7" t="s"/>
       <c r="R7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
@@ -1517,14 +1842,10 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>90</v>
-      </c>
-      <c r="X7" t="s">
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
         <v>91</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="8">
@@ -1540,7 +1861,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1549,49 +1870,43 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
         <v>94</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>95</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>96</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
         <v>97</v>
       </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>98</v>
-      </c>
       <c r="O8" t="s">
-        <v>74</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
+        <v>98</v>
+      </c>
+      <c r="X8" t="s">
         <v>99</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>100</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="9">
@@ -1607,7 +1922,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1616,49 +1931,39 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
         <v>103</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>104</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>105</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
         <v>106</v>
       </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>107</v>
-      </c>
       <c r="O9" t="s">
-        <v>74</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>99</v>
-      </c>
-      <c r="X9" t="s">
-        <v>100</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -1674,7 +1979,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1683,22 +1988,26 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
         <v>110</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>111</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" t="s">
         <v>112</v>
       </c>
-      <c r="L10" t="s">
-        <v>113</v>
-      </c>
-      <c r="M10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
@@ -1709,13 +2018,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
+        <v>113</v>
+      </c>
+      <c r="X10" t="s">
         <v>114</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>115</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="11">
@@ -1731,7 +2040,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1740,38 +2049,34 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" t="s">
         <v>118</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>119</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>120</v>
-      </c>
-      <c r="L11" t="s">
-        <v>121</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O11" t="s">
-        <v>74</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
-        <v>3</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
         <v>1</v>
@@ -1779,10 +2084,14 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>122</v>
+      </c>
+      <c r="X11" t="s">
+        <v>123</v>
+      </c>
       <c r="Y11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
@@ -1798,7 +2107,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1807,51 +2116,43 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="O12" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>4</v>
-      </c>
-      <c r="R12" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>114</v>
-      </c>
-      <c r="X12" t="s">
-        <v>115</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
         <v>129</v>
       </c>
@@ -1869,7 +2170,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1878,49 +2179,47 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
-      </c>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
-      <c r="P13" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>130</v>
+      </c>
+      <c r="O13" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
@@ -1936,7 +2235,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1945,50 +2244,46 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="X14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y14" t="s">
         <v>145</v>
@@ -2028,41 +2323,37 @@
         <v>150</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="O15" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="P15" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="n">
-        <v>4</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="X15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y15" t="s">
         <v>152</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="16">
@@ -2078,7 +2369,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2087,53 +2378,39 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
+        <v>154</v>
+      </c>
+      <c r="J16" t="s">
         <v>155</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>156</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>157</v>
       </c>
-      <c r="L16" t="s">
-        <v>158</v>
-      </c>
       <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="s">
-        <v>159</v>
-      </c>
-      <c r="O16" t="s">
-        <v>60</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" t="n">
         <v>3</v>
       </c>
-      <c r="S16" t="n">
-        <v>1</v>
-      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>1</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
+        <v>158</v>
+      </c>
+      <c r="X16" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y16" t="s">
         <v>160</v>
-      </c>
-      <c r="X16" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="17">
@@ -2149,7 +2426,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2158,53 +2435,49 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
+        <v>162</v>
+      </c>
+      <c r="J17" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17" t="s">
         <v>164</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" t="s">
         <v>165</v>
       </c>
-      <c r="K17" t="s">
-        <v>166</v>
-      </c>
-      <c r="L17" t="s">
-        <v>167</v>
-      </c>
       <c r="M17" t="n">
-        <v>4</v>
-      </c>
-      <c r="N17" t="s">
-        <v>168</v>
-      </c>
-      <c r="O17" t="s">
-        <v>74</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
       <c r="P17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="X17" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="Y17" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18">
@@ -2220,7 +2493,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2229,49 +2502,43 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="J18" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="K18" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L18" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
-      </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
-      <c r="P18" t="n">
         <v>3</v>
       </c>
-      <c r="Q18" t="n">
-        <v>2</v>
-      </c>
-      <c r="R18" t="n">
-        <v>4</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2</v>
-      </c>
+      <c r="N18" t="s">
+        <v>172</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>1</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="X18" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="Y18" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19">
@@ -2287,7 +2554,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2296,53 +2563,49 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="J19" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="K19" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="L19" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="O19" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>169</v>
-      </c>
-      <c r="X19" t="s">
-        <v>170</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
@@ -2358,7 +2621,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2367,22 +2630,22 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="J20" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="K20" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="L20" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="O20" t="s">
         <v>53</v>
@@ -2397,7 +2660,7 @@
         <v>4</v>
       </c>
       <c r="S20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
@@ -2407,13 +2670,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="X20" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="Y20" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21">
@@ -2429,7 +2692,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2438,49 +2701,49 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="J21" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="K21" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L21" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
-      </c>
-      <c r="N21" t="s">
-        <v>199</v>
-      </c>
-      <c r="O21" t="s">
-        <v>67</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
       <c r="P21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R21" t="n">
         <v>5</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>192</v>
+      </c>
+      <c r="X21" t="s">
+        <v>193</v>
+      </c>
       <c r="Y21" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22">
@@ -2496,7 +2759,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2505,49 +2768,43 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="J22" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="K22" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L22" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="O22" t="s">
-        <v>60</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>4</v>
-      </c>
-      <c r="R22" t="n">
-        <v>4</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>4</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>192</v>
+      </c>
+      <c r="X22" t="s">
+        <v>193</v>
+      </c>
       <c r="Y22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23">
@@ -2563,7 +2820,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2572,53 +2829,1165 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
+        <v>203</v>
+      </c>
+      <c r="J23" t="s">
+        <v>204</v>
+      </c>
+      <c r="K23" t="s">
+        <v>205</v>
+      </c>
+      <c r="L23" t="s">
+        <v>206</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
         <v>207</v>
       </c>
-      <c r="J23" t="s">
-        <v>208</v>
-      </c>
-      <c r="K23" t="s">
-        <v>209</v>
-      </c>
-      <c r="L23" t="s">
-        <v>210</v>
-      </c>
-      <c r="M23" t="n">
-        <v>4</v>
-      </c>
-      <c r="N23" t="s">
-        <v>211</v>
-      </c>
       <c r="O23" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="P23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="X23" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="Y23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>30270</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>211</v>
+      </c>
+      <c r="J24" t="s">
         <v>212</v>
+      </c>
+      <c r="K24" t="s">
+        <v>213</v>
+      </c>
+      <c r="L24" t="s">
+        <v>214</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>200</v>
+      </c>
+      <c r="O24" t="s">
+        <v>84</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>208</v>
+      </c>
+      <c r="X24" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>30270</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>216</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>217</v>
+      </c>
+      <c r="J25" t="s">
+        <v>218</v>
+      </c>
+      <c r="K25" t="s">
+        <v>219</v>
+      </c>
+      <c r="L25" t="s">
+        <v>220</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>200</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>221</v>
+      </c>
+      <c r="X25" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>30270</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>224</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>225</v>
+      </c>
+      <c r="J26" t="s">
+        <v>226</v>
+      </c>
+      <c r="K26" t="s">
+        <v>227</v>
+      </c>
+      <c r="L26" t="s">
+        <v>228</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>229</v>
+      </c>
+      <c r="O26" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>230</v>
+      </c>
+      <c r="X26" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>30270</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>233</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>234</v>
+      </c>
+      <c r="J27" t="s">
+        <v>235</v>
+      </c>
+      <c r="K27" t="s">
+        <v>236</v>
+      </c>
+      <c r="L27" t="s">
+        <v>237</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>238</v>
+      </c>
+      <c r="O27" t="s">
+        <v>71</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>239</v>
+      </c>
+      <c r="X27" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>30270</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>241</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>242</v>
+      </c>
+      <c r="J28" t="s">
+        <v>243</v>
+      </c>
+      <c r="K28" t="s">
+        <v>244</v>
+      </c>
+      <c r="L28" t="s">
+        <v>245</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>246</v>
+      </c>
+      <c r="X28" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>30270</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>249</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>250</v>
+      </c>
+      <c r="J29" t="s">
+        <v>251</v>
+      </c>
+      <c r="K29" t="s">
+        <v>252</v>
+      </c>
+      <c r="L29" t="s">
+        <v>253</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>254</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>246</v>
+      </c>
+      <c r="X29" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>30270</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>256</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>257</v>
+      </c>
+      <c r="J30" t="s">
+        <v>258</v>
+      </c>
+      <c r="K30" t="s">
+        <v>259</v>
+      </c>
+      <c r="L30" t="s">
+        <v>260</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>261</v>
+      </c>
+      <c r="X30" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30270</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>264</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>265</v>
+      </c>
+      <c r="J31" t="s">
+        <v>266</v>
+      </c>
+      <c r="K31" t="s">
+        <v>267</v>
+      </c>
+      <c r="L31" t="s">
+        <v>268</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>269</v>
+      </c>
+      <c r="O31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>246</v>
+      </c>
+      <c r="X31" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30270</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>271</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>272</v>
+      </c>
+      <c r="J32" t="s">
+        <v>273</v>
+      </c>
+      <c r="K32" t="s">
+        <v>274</v>
+      </c>
+      <c r="L32" t="s">
+        <v>275</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>30270</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>276</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>277</v>
+      </c>
+      <c r="J33" t="s">
+        <v>278</v>
+      </c>
+      <c r="K33" t="s">
+        <v>279</v>
+      </c>
+      <c r="L33" t="s">
+        <v>280</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>281</v>
+      </c>
+      <c r="O33" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>246</v>
+      </c>
+      <c r="X33" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>30270</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>283</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>284</v>
+      </c>
+      <c r="J34" t="s">
+        <v>285</v>
+      </c>
+      <c r="K34" t="s">
+        <v>286</v>
+      </c>
+      <c r="L34" t="s">
+        <v>287</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>288</v>
+      </c>
+      <c r="O34" t="s">
+        <v>71</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>246</v>
+      </c>
+      <c r="X34" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>30270</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>290</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>291</v>
+      </c>
+      <c r="J35" t="s">
+        <v>292</v>
+      </c>
+      <c r="K35" t="s">
+        <v>293</v>
+      </c>
+      <c r="L35" t="s">
+        <v>294</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>295</v>
+      </c>
+      <c r="O35" t="s">
+        <v>84</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>30270</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>296</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>297</v>
+      </c>
+      <c r="J36" t="s">
+        <v>298</v>
+      </c>
+      <c r="K36" t="s">
+        <v>299</v>
+      </c>
+      <c r="L36" t="s">
+        <v>300</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>301</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>30270</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>302</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>303</v>
+      </c>
+      <c r="J37" t="s">
+        <v>304</v>
+      </c>
+      <c r="K37" t="s">
+        <v>305</v>
+      </c>
+      <c r="L37" t="s">
+        <v>306</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>307</v>
+      </c>
+      <c r="O37" t="s">
+        <v>84</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>246</v>
+      </c>
+      <c r="X37" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>30270</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>309</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>310</v>
+      </c>
+      <c r="J38" t="s">
+        <v>311</v>
+      </c>
+      <c r="K38" t="s">
+        <v>312</v>
+      </c>
+      <c r="L38" t="s">
+        <v>313</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>314</v>
+      </c>
+      <c r="O38" t="s">
+        <v>112</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>246</v>
+      </c>
+      <c r="X38" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>30270</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>316</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>317</v>
+      </c>
+      <c r="J39" t="s">
+        <v>318</v>
+      </c>
+      <c r="K39" t="s">
+        <v>319</v>
+      </c>
+      <c r="L39" t="s">
+        <v>320</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>314</v>
+      </c>
+      <c r="O39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>261</v>
+      </c>
+      <c r="X39" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
